--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Retinopatía de fondo.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Retinopatía de fondo.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13.92355833314735</v>
+        <v>13.92120970214492</v>
       </c>
       <c r="B2" t="n">
-        <v>10.91272615239327</v>
+        <v>10.96131004207145</v>
       </c>
       <c r="C2" t="n">
-        <v>18.27341931025989</v>
+        <v>18.26922699981088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18.15495405273104</v>
+        <v>18.41327381060561</v>
       </c>
       <c r="B3" t="n">
-        <v>6.964089606925413</v>
+        <v>6.939884531963467</v>
       </c>
       <c r="C3" t="n">
-        <v>29.86962888903641</v>
+        <v>29.82095882800603</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17.70315771018111</v>
+        <v>17.62925599830132</v>
       </c>
       <c r="B4" t="n">
-        <v>12.55702196018015</v>
+        <v>12.57160958715028</v>
       </c>
       <c r="C4" t="n">
-        <v>23.3815040478219</v>
+        <v>23.26916816943996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21.85297569463311</v>
+        <v>22.07706730589455</v>
       </c>
       <c r="B5" t="n">
-        <v>8.505736004394064</v>
+        <v>8.598091636768849</v>
       </c>
       <c r="C5" t="n">
-        <v>34.80387504088998</v>
+        <v>34.93086206240482</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22.55730820857866</v>
+        <v>22.47389071713425</v>
       </c>
       <c r="B6" t="n">
-        <v>18.34739153313223</v>
+        <v>18.87719289283462</v>
       </c>
       <c r="C6" t="n">
-        <v>26.40248934024304</v>
+        <v>26.14242433608779</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.74094302003503</v>
+        <v>12.70541138739235</v>
       </c>
       <c r="B7" t="n">
-        <v>10.2381576800499</v>
+        <v>10.23569401058053</v>
       </c>
       <c r="C7" t="n">
-        <v>16.1278629846467</v>
+        <v>16.0334719875313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.344199692486416</v>
+        <v>1.340504840444483</v>
       </c>
       <c r="B8" t="n">
-        <v>1.063283545914276</v>
+        <v>1.060471962944</v>
       </c>
       <c r="C8" t="n">
-        <v>1.851750070787272</v>
+        <v>1.845320729711444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20.6869447793563</v>
+        <v>20.66363120217269</v>
       </c>
       <c r="B9" t="n">
-        <v>17.08008453951205</v>
+        <v>17.51956762470492</v>
       </c>
       <c r="C9" t="n">
-        <v>24.28844295310446</v>
+        <v>24.24021904643489</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.349428623373593</v>
+        <v>1.345652398441431</v>
       </c>
       <c r="B10" t="n">
-        <v>1.062289846207767</v>
+        <v>1.062001570980459</v>
       </c>
       <c r="C10" t="n">
-        <v>1.839575558716267</v>
+        <v>1.834777650407574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.743414900526705</v>
+        <v>7.779608989906619</v>
       </c>
       <c r="B11" t="n">
-        <v>5.231029451918765</v>
+        <v>5.24554499016497</v>
       </c>
       <c r="C11" t="n">
-        <v>11.99029695493407</v>
+        <v>12.00400399590753</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>21.85801262174492</v>
+        <v>21.72542333256477</v>
       </c>
       <c r="B12" t="n">
-        <v>18.78674644023215</v>
+        <v>18.81504466080679</v>
       </c>
       <c r="C12" t="n">
-        <v>25.69981736952679</v>
+        <v>25.69784968048811</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.097519104649383</v>
+        <v>2.090620064691609</v>
       </c>
       <c r="B13" t="n">
-        <v>1.49650825943991</v>
+        <v>1.493238504029998</v>
       </c>
       <c r="C13" t="n">
-        <v>3.190667117883118</v>
+        <v>3.160184548130703</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.931108148362945</v>
+        <v>3.902163322443779</v>
       </c>
       <c r="B14" t="n">
-        <v>2.593874013665356</v>
+        <v>2.603895573143855</v>
       </c>
       <c r="C14" t="n">
-        <v>6.181458290998195</v>
+        <v>6.207759772317279</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>25.81171063621701</v>
+        <v>25.60594210979114</v>
       </c>
       <c r="B15" t="n">
-        <v>13.16209567677753</v>
+        <v>11.01683556207869</v>
       </c>
       <c r="C15" t="n">
-        <v>40.49300929235854</v>
+        <v>40.5011045314051</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22.52471091331966</v>
+        <v>22.50443637705029</v>
       </c>
       <c r="B16" t="n">
-        <v>18.21112856968164</v>
+        <v>18.87029079788068</v>
       </c>
       <c r="C16" t="n">
-        <v>26.46091165632567</v>
+        <v>26.20459653840652</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21.74412724697617</v>
+        <v>21.78779876928554</v>
       </c>
       <c r="B17" t="n">
-        <v>18.72353773676568</v>
+        <v>18.54984337574082</v>
       </c>
       <c r="C17" t="n">
-        <v>25.54584081259744</v>
+        <v>25.55109723468735</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17.80702521796217</v>
+        <v>17.62925599830132</v>
       </c>
       <c r="B18" t="n">
-        <v>12.55702196018015</v>
+        <v>12.57160958715028</v>
       </c>
       <c r="C18" t="n">
-        <v>23.38419062033505</v>
+        <v>23.26916816943996</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.891982009516571</v>
+        <v>7.872630629040973</v>
       </c>
       <c r="B19" t="n">
-        <v>5.27570264050941</v>
+        <v>5.28166901737814</v>
       </c>
       <c r="C19" t="n">
-        <v>12.10403065171167</v>
+        <v>12.13621763062513</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25.5340224919502</v>
+        <v>25.4462726469938</v>
       </c>
       <c r="B20" t="n">
-        <v>21.66406178460868</v>
+        <v>21.98213128550441</v>
       </c>
       <c r="C20" t="n">
-        <v>29.74607868706788</v>
+        <v>29.49912199666365</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>25.38615501761005</v>
+        <v>25.23364652266176</v>
       </c>
       <c r="B21" t="n">
-        <v>18.50369079498243</v>
+        <v>18.01672490502324</v>
       </c>
       <c r="C21" t="n">
-        <v>32.12151175461899</v>
+        <v>32.06595100222099</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.349753270531653</v>
+        <v>1.345187281471877</v>
       </c>
       <c r="B22" t="n">
-        <v>1.059485117555337</v>
+        <v>1.058373854730492</v>
       </c>
       <c r="C22" t="n">
-        <v>1.864387639794843</v>
+        <v>1.87112430654644</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>27.3796102266948</v>
+        <v>28.1054204019949</v>
       </c>
       <c r="B23" t="n">
-        <v>13.06368205033965</v>
+        <v>12.98775318212981</v>
       </c>
       <c r="C23" t="n">
-        <v>43.6441208378467</v>
+        <v>43.85076428274915</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22.52296165815397</v>
+        <v>22.50080727217914</v>
       </c>
       <c r="B24" t="n">
-        <v>18.22811653268097</v>
+        <v>18.873905632994</v>
       </c>
       <c r="C24" t="n">
-        <v>26.44648045323905</v>
+        <v>26.19407500130826</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>18.80377046504309</v>
+        <v>18.78897989754048</v>
       </c>
       <c r="B25" t="n">
-        <v>15.2074512446369</v>
+        <v>15.82913510761607</v>
       </c>
       <c r="C25" t="n">
-        <v>21.87791652942373</v>
+        <v>21.97026972366085</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25.37848857198188</v>
+        <v>24.81522082281263</v>
       </c>
       <c r="B26" t="n">
-        <v>18.53307953674122</v>
+        <v>17.63452385514087</v>
       </c>
       <c r="C26" t="n">
-        <v>31.71526625160867</v>
+        <v>31.72316176153529</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.104247027103197</v>
+        <v>2.089879631621546</v>
       </c>
       <c r="B27" t="n">
-        <v>1.493865526690442</v>
+        <v>1.495554398578567</v>
       </c>
       <c r="C27" t="n">
-        <v>3.226783571026904</v>
+        <v>3.200912975293255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13.49377640574021</v>
+        <v>13.43450009631877</v>
       </c>
       <c r="B28" t="n">
-        <v>10.62447146941521</v>
+        <v>10.57551984512362</v>
       </c>
       <c r="C28" t="n">
-        <v>17.08902400420641</v>
+        <v>16.9853733310401</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>29.45677065149714</v>
+        <v>29.49280350105835</v>
       </c>
       <c r="B29" t="n">
-        <v>13.33632200847825</v>
+        <v>13.23565188293436</v>
       </c>
       <c r="C29" t="n">
-        <v>46.05034106568988</v>
+        <v>46.1371491085018</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20.47823901226994</v>
+        <v>20.55226404532578</v>
       </c>
       <c r="B30" t="n">
-        <v>17.65331091181252</v>
+        <v>17.56959790377127</v>
       </c>
       <c r="C30" t="n">
-        <v>23.67986450594038</v>
+        <v>23.94800517646402</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.957878916284702</v>
+        <v>3.976440569913307</v>
       </c>
       <c r="B31" t="n">
-        <v>2.612214623171209</v>
+        <v>2.609044088049878</v>
       </c>
       <c r="C31" t="n">
-        <v>6.185027814366019</v>
+        <v>6.220159884583693</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.105593772986601</v>
+        <v>2.093725944236646</v>
       </c>
       <c r="B32" t="n">
-        <v>1.507109383930305</v>
+        <v>1.512787829427939</v>
       </c>
       <c r="C32" t="n">
-        <v>3.19918322969133</v>
+        <v>3.163517041945289</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.942275714403942</v>
+        <v>3.921209445194216</v>
       </c>
       <c r="B33" t="n">
-        <v>2.601413798523408</v>
+        <v>2.599515276370651</v>
       </c>
       <c r="C33" t="n">
-        <v>6.192914439335729</v>
+        <v>6.236237545554384</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15.34429144211639</v>
+        <v>15.36330592822387</v>
       </c>
       <c r="B34" t="n">
-        <v>11.82954507115046</v>
+        <v>11.49711718232301</v>
       </c>
       <c r="C34" t="n">
-        <v>20.54564639179701</v>
+        <v>20.53613353911573</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>24.0163573378857</v>
+        <v>23.79795549470442</v>
       </c>
       <c r="B35" t="n">
-        <v>19.81625706515976</v>
+        <v>20.09485951279818</v>
       </c>
       <c r="C35" t="n">
-        <v>27.81006744849601</v>
+        <v>27.76568276076145</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12.63643440798248</v>
+        <v>12.61298705037775</v>
       </c>
       <c r="B36" t="n">
-        <v>10.06072642283286</v>
+        <v>10.05065791668104</v>
       </c>
       <c r="C36" t="n">
-        <v>16.14564092615555</v>
+        <v>16.12635384807147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>27.20329772473742</v>
+        <v>27.24053119280253</v>
       </c>
       <c r="B37" t="n">
-        <v>20.69124042054566</v>
+        <v>20.02984255167112</v>
       </c>
       <c r="C37" t="n">
-        <v>34.41656980261713</v>
+        <v>34.1755360770379</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.91634701208228</v>
+        <v>3.910077893354833</v>
       </c>
       <c r="B38" t="n">
-        <v>2.600178807324393</v>
+        <v>2.593569065320459</v>
       </c>
       <c r="C38" t="n">
-        <v>6.232473699619111</v>
+        <v>6.2666429407441</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>22.67113027414669</v>
+        <v>22.7292968763431</v>
       </c>
       <c r="B39" t="n">
-        <v>19.78805404008119</v>
+        <v>19.56781892300916</v>
       </c>
       <c r="C39" t="n">
-        <v>26.40122794510757</v>
+        <v>26.51215630817335</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21.78540143786417</v>
+        <v>21.46648129787013</v>
       </c>
       <c r="B40" t="n">
-        <v>16.68007539435898</v>
+        <v>16.0439991624402</v>
       </c>
       <c r="C40" t="n">
-        <v>27.59415538059881</v>
+        <v>27.23771872120865</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11.99560055464443</v>
+        <v>12.01468994799287</v>
       </c>
       <c r="B41" t="n">
-        <v>9.875717277523005</v>
+        <v>9.857912221068119</v>
       </c>
       <c r="C41" t="n">
-        <v>14.90169505507758</v>
+        <v>14.96182069475434</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7.873966730568612</v>
+        <v>7.827396309315415</v>
       </c>
       <c r="B42" t="n">
-        <v>5.248297538297847</v>
+        <v>5.252742541167156</v>
       </c>
       <c r="C42" t="n">
-        <v>12.31271816444501</v>
+        <v>12.27555642366491</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20.47823901226994</v>
+        <v>20.55226404532578</v>
       </c>
       <c r="B43" t="n">
-        <v>17.76351948278121</v>
+        <v>17.56959790377127</v>
       </c>
       <c r="C43" t="n">
-        <v>23.65965696315675</v>
+        <v>23.94800517646402</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7.325643764440584</v>
+        <v>7.324651750261172</v>
       </c>
       <c r="B44" t="n">
-        <v>5.192003625309691</v>
+        <v>5.268188125513968</v>
       </c>
       <c r="C44" t="n">
-        <v>10.57088593397395</v>
+        <v>10.58042317634894</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8.00173858626548</v>
+        <v>8.002011231768117</v>
       </c>
       <c r="B45" t="n">
-        <v>5.318675290577062</v>
+        <v>5.295585378083115</v>
       </c>
       <c r="C45" t="n">
-        <v>12.74595382287799</v>
+        <v>12.74283946839329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.892488585071476</v>
+        <v>3.899261168214233</v>
       </c>
       <c r="B46" t="n">
-        <v>2.591185589329726</v>
+        <v>2.607815885709016</v>
       </c>
       <c r="C46" t="n">
-        <v>6.065855417434242</v>
+        <v>6.048136392168704</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.354916656141133</v>
+        <v>1.364013415023436</v>
       </c>
       <c r="B47" t="n">
-        <v>1.059431125658849</v>
+        <v>1.055614247508611</v>
       </c>
       <c r="C47" t="n">
-        <v>1.849952071598239</v>
+        <v>1.851319295429734</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>21.86995962464227</v>
+        <v>21.77381133130935</v>
       </c>
       <c r="B48" t="n">
-        <v>18.76988743600332</v>
+        <v>18.82652649674428</v>
       </c>
       <c r="C48" t="n">
-        <v>25.78514128613669</v>
+        <v>25.7611058011361</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>19.47591911832642</v>
+        <v>19.61257597255933</v>
       </c>
       <c r="B49" t="n">
-        <v>14.03009205382403</v>
+        <v>13.73246640420222</v>
       </c>
       <c r="C49" t="n">
-        <v>25.3738667360328</v>
+        <v>25.50161569634258</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>27.17906770044326</v>
+        <v>27.1917568931443</v>
       </c>
       <c r="B50" t="n">
-        <v>20.72537960350671</v>
+        <v>19.88245245681075</v>
       </c>
       <c r="C50" t="n">
-        <v>34.55268533968474</v>
+        <v>34.1529024587131</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>18.05808492364264</v>
+        <v>18.42879784190137</v>
       </c>
       <c r="B51" t="n">
-        <v>7.013761513318108</v>
+        <v>6.959129528158291</v>
       </c>
       <c r="C51" t="n">
-        <v>30.03700255465211</v>
+        <v>29.84979114662602</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3.801819677995581</v>
+        <v>3.774785348618193</v>
       </c>
       <c r="B52" t="n">
-        <v>2.606305482955909</v>
+        <v>2.596981421510345</v>
       </c>
       <c r="C52" t="n">
-        <v>6.079966085478251</v>
+        <v>6.079559494950883</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>22.61003224907272</v>
+        <v>22.76280699234251</v>
       </c>
       <c r="B53" t="n">
-        <v>19.69644632940589</v>
+        <v>19.41980367754787</v>
       </c>
       <c r="C53" t="n">
-        <v>26.32343941905214</v>
+        <v>26.63180066305698</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>25.79872493243795</v>
+        <v>25.63570728911887</v>
       </c>
       <c r="B54" t="n">
-        <v>12.37796706770341</v>
+        <v>11.09084773863882</v>
       </c>
       <c r="C54" t="n">
-        <v>39.95775716911974</v>
+        <v>40.54069634484281</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>25.37399422465493</v>
+        <v>24.94566584941417</v>
       </c>
       <c r="B55" t="n">
-        <v>18.50333267993471</v>
+        <v>17.88908710530983</v>
       </c>
       <c r="C55" t="n">
-        <v>32.03216040791103</v>
+        <v>31.91573396106226</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.90904903914937</v>
+        <v>3.898376678198692</v>
       </c>
       <c r="B56" t="n">
-        <v>2.613032501973476</v>
+        <v>2.613055846654043</v>
       </c>
       <c r="C56" t="n">
-        <v>6.148680747621954</v>
+        <v>6.158106849405281</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.109729029360001</v>
+        <v>2.117278457128078</v>
       </c>
       <c r="B57" t="n">
-        <v>1.509403980704501</v>
+        <v>1.515095877654378</v>
       </c>
       <c r="C57" t="n">
-        <v>3.188364939072891</v>
+        <v>3.17020147291823</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>27.18681175102225</v>
+        <v>27.1843270231798</v>
       </c>
       <c r="B58" t="n">
-        <v>20.57623919780122</v>
+        <v>20.21363764448143</v>
       </c>
       <c r="C58" t="n">
-        <v>34.5270737432016</v>
+        <v>34.35849439711836</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.666906599479853</v>
+        <v>7.659139727458181</v>
       </c>
       <c r="B59" t="n">
-        <v>5.260150071308671</v>
+        <v>5.216199637170454</v>
       </c>
       <c r="C59" t="n">
-        <v>11.55337474549077</v>
+        <v>11.53600112225452</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>27.38077306468512</v>
+        <v>28.12849977053046</v>
       </c>
       <c r="B60" t="n">
-        <v>13.83746784735808</v>
+        <v>13.20192482061311</v>
       </c>
       <c r="C60" t="n">
-        <v>45.33137525732892</v>
+        <v>45.29619908247507</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.899248611056281</v>
+        <v>3.882043495823602</v>
       </c>
       <c r="B61" t="n">
-        <v>2.602577633860387</v>
+        <v>2.594177646257118</v>
       </c>
       <c r="C61" t="n">
-        <v>6.182366340209587</v>
+        <v>6.209182337654563</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7.770626415538175</v>
+        <v>7.780200012641967</v>
       </c>
       <c r="B62" t="n">
-        <v>5.225226248192643</v>
+        <v>5.247999613055492</v>
       </c>
       <c r="C62" t="n">
-        <v>12.03169554903348</v>
+        <v>12.04164743485302</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3.924705894416685</v>
+        <v>3.929000599989743</v>
       </c>
       <c r="B63" t="n">
-        <v>2.607548403156727</v>
+        <v>2.623880875568434</v>
       </c>
       <c r="C63" t="n">
-        <v>6.339726371539647</v>
+        <v>6.328636154866857</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>27.37612935317175</v>
+        <v>28.09404795275958</v>
       </c>
       <c r="B64" t="n">
-        <v>12.92286737904975</v>
+        <v>12.86086081213301</v>
       </c>
       <c r="C64" t="n">
-        <v>44.44677174313662</v>
+        <v>44.62712031535178</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.126803551289496</v>
+        <v>2.12772085338439</v>
       </c>
       <c r="B65" t="n">
-        <v>1.517811936062604</v>
+        <v>1.516397051789074</v>
       </c>
       <c r="C65" t="n">
-        <v>3.205238730500382</v>
+        <v>3.235053636391319</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14.8494765804996</v>
+        <v>14.84213628682425</v>
       </c>
       <c r="B66" t="n">
-        <v>11.09118981339315</v>
+        <v>11.10741042114251</v>
       </c>
       <c r="C66" t="n">
-        <v>20.12992437246093</v>
+        <v>20.14497610595064</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>14.4532599821243</v>
+        <v>14.44759486070826</v>
       </c>
       <c r="B67" t="n">
-        <v>10.94622968404063</v>
+        <v>11.01382812680418</v>
       </c>
       <c r="C67" t="n">
-        <v>18.85116442762128</v>
+        <v>18.90648075643981</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>23.52595237506726</v>
+        <v>23.77649010148448</v>
       </c>
       <c r="B68" t="n">
-        <v>17.31683716286175</v>
+        <v>16.77154960584606</v>
       </c>
       <c r="C68" t="n">
-        <v>30.69424496546782</v>
+        <v>30.54449383645341</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.35032201512914</v>
+        <v>1.337221548398764</v>
       </c>
       <c r="B69" t="n">
-        <v>1.060571052436056</v>
+        <v>1.060647111690126</v>
       </c>
       <c r="C69" t="n">
-        <v>1.870004073088456</v>
+        <v>1.865484611650596</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>21.63435293505189</v>
+        <v>21.26947322133706</v>
       </c>
       <c r="B70" t="n">
-        <v>16.81893746394822</v>
+        <v>16.14589042436712</v>
       </c>
       <c r="C70" t="n">
-        <v>27.62100150635888</v>
+        <v>27.3648533074205</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>15.33541221874592</v>
+        <v>15.35006998807355</v>
       </c>
       <c r="B71" t="n">
-        <v>13.8921157269003</v>
+        <v>13.65688046764606</v>
       </c>
       <c r="C71" t="n">
-        <v>17.76324964139107</v>
+        <v>17.76119063550463</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>18.19901866426493</v>
+        <v>18.25335653799225</v>
       </c>
       <c r="B72" t="n">
-        <v>16.20408974846049</v>
+        <v>16.00621622659151</v>
       </c>
       <c r="C72" t="n">
-        <v>21.09787812863891</v>
+        <v>21.13098077222388</v>
       </c>
     </row>
   </sheetData>
